--- a/poblacion.xlsx
+++ b/poblacion.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigoleo/Library/Mobile Documents/iCloud~AsheKube~Carnets/Documents/macro-mexico/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigoleo/Library/Mobile Documents/com~apple~CloudDocs/macro-mexico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A60AEC00-6006-6647-8C94-E4B02B77F8B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7247A02-1021-8948-964A-27017E2F3055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{765707F2-0AC8-5740-8FCF-5AF61AFB5A11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,49 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>2015 </t>
-  </si>
-  <si>
-    <t>2010 </t>
-  </si>
-  <si>
-    <t>2005 </t>
-  </si>
-  <si>
-    <t>2000 </t>
-  </si>
-  <si>
-    <t>1995 </t>
-  </si>
-  <si>
-    <t>1990 </t>
-  </si>
-  <si>
-    <t>1980 </t>
-  </si>
-  <si>
-    <t>1970 </t>
-  </si>
-  <si>
-    <t>1960 </t>
-  </si>
-  <si>
-    <t>1950 </t>
-  </si>
-  <si>
-    <t>1940 </t>
-  </si>
-  <si>
-    <t>1930 </t>
-  </si>
-  <si>
-    <t>1921 </t>
-  </si>
-  <si>
-    <t>1910 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>poblacion</t>
   </si>
@@ -120,9 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,136 +397,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11CEE6E-9EBE-FD41-B2CB-4C362E387A4C}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1910</v>
+      </c>
+      <c r="B2" s="2">
         <v>15160369</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1921</v>
+      </c>
+      <c r="B3" s="2">
         <v>14334780</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1930</v>
+      </c>
+      <c r="B4" s="2">
         <v>16552722</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1940</v>
+      </c>
+      <c r="B5" s="2">
         <v>19653552</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1950</v>
+      </c>
+      <c r="B6" s="3">
         <v>25791017</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1960</v>
+      </c>
+      <c r="B7" s="2">
         <v>34923129</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B8" s="2">
         <v>48225238</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1980</v>
+      </c>
+      <c r="B9" s="2">
         <v>66846833</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>1990</v>
+      </c>
+      <c r="B10" s="2">
         <v>81249645</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B11" s="2">
         <v>91158290</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="2">
         <v>97483412</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B13" s="2">
         <v>103263388</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="2">
         <v>112336538</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="2">
         <v>119938473</v>
       </c>
     </row>
